--- a/2020/06/20200625_excel_mark_duplicated_value/example.xlsx
+++ b/2020/06/20200625_excel_mark_duplicated_value/example.xlsx
@@ -7,9 +7,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="展示" sheetId="1" r:id="rId1"/>
+    <sheet name="資料" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,95 +19,114 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Builtin</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-formula</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-formula</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>杏仁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘋果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘蔗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檳榔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓮霧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芭樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楊桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>櫻桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橘子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔓越莓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榴槤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈密瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水蜜桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇異果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檸檬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芒果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枇杷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳丁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,19 +140,6 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,19 +168,11 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="8">
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -200,31 +199,29 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -503,197 +500,536 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f ca="1">INDEX(資料!A:A, RANDBETWEEN(1, COUNTA(資料!A:A)))</f>
+        <v>楊桃</v>
+      </c>
+      <c r="B1" t="str">
+        <f ca="1">A1</f>
+        <v>楊桃</v>
+      </c>
+      <c r="C1" t="str">
+        <f ca="1">B1</f>
+        <v>楊桃</v>
+      </c>
+      <c r="D1" t="str">
+        <f ca="1">C1</f>
+        <v>楊桃</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f ca="1">INDEX(資料!A:A, RANDBETWEEN(1, COUNTA(資料!A:A)))</f>
+        <v>芭樂</v>
+      </c>
+      <c r="B2" t="str">
+        <f ca="1">A2</f>
+        <v>芭樂</v>
+      </c>
+      <c r="C2" t="str">
+        <f ca="1">B2</f>
+        <v>芭樂</v>
+      </c>
+      <c r="D2" t="str">
+        <f ca="1">C2</f>
+        <v>芭樂</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f ca="1">INDEX(資料!A:A, RANDBETWEEN(1, COUNTA(資料!A:A)))</f>
+        <v>椰子</v>
+      </c>
+      <c r="B3" t="str">
+        <f ca="1">A3</f>
+        <v>椰子</v>
+      </c>
+      <c r="C3" t="str">
+        <f ca="1">B3</f>
+        <v>椰子</v>
+      </c>
+      <c r="D3" t="str">
+        <f ca="1">C3</f>
+        <v>椰子</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f ca="1">INDEX(資料!A:A, RANDBETWEEN(1, COUNTA(資料!A:A)))</f>
+        <v>甘蔗</v>
+      </c>
+      <c r="B4" t="str">
+        <f ca="1">A4</f>
+        <v>甘蔗</v>
+      </c>
+      <c r="C4" t="str">
+        <f ca="1">B4</f>
+        <v>甘蔗</v>
+      </c>
+      <c r="D4" t="str">
+        <f ca="1">C4</f>
+        <v>甘蔗</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f ca="1">INDEX(資料!A:A, RANDBETWEEN(1, COUNTA(資料!A:A)))</f>
+        <v>楊桃</v>
+      </c>
+      <c r="B5" t="str">
+        <f ca="1">A5</f>
+        <v>楊桃</v>
+      </c>
+      <c r="C5" t="str">
+        <f ca="1">B5</f>
+        <v>楊桃</v>
+      </c>
+      <c r="D5" t="str">
+        <f ca="1">C5</f>
+        <v>楊桃</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f ca="1">INDEX(資料!A:A, RANDBETWEEN(1, COUNTA(資料!A:A)))</f>
+        <v>甘蔗</v>
+      </c>
+      <c r="B6" t="str">
+        <f ca="1">A6</f>
+        <v>甘蔗</v>
+      </c>
+      <c r="C6" t="str">
+        <f ca="1">B6</f>
+        <v>甘蔗</v>
+      </c>
+      <c r="D6" t="str">
+        <f ca="1">C6</f>
+        <v>甘蔗</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f ca="1">INDEX(資料!A:A, RANDBETWEEN(1, COUNTA(資料!A:A)))</f>
+        <v>奇異果</v>
+      </c>
+      <c r="B7" t="str">
+        <f ca="1">A7</f>
+        <v>奇異果</v>
+      </c>
+      <c r="C7" t="str">
+        <f ca="1">B7</f>
+        <v>奇異果</v>
+      </c>
+      <c r="D7" t="str">
+        <f ca="1">C7</f>
+        <v>奇異果</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f ca="1">INDEX(資料!A:A, RANDBETWEEN(1, COUNTA(資料!A:A)))</f>
+        <v>蘋果</v>
+      </c>
+      <c r="B8" t="str">
+        <f ca="1">A8</f>
+        <v>蘋果</v>
+      </c>
+      <c r="C8" t="str">
+        <f ca="1">B8</f>
+        <v>蘋果</v>
+      </c>
+      <c r="D8" t="str">
+        <f ca="1">C8</f>
+        <v>蘋果</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f ca="1">INDEX(資料!A:A, RANDBETWEEN(1, COUNTA(資料!A:A)))</f>
+        <v>甘蔗</v>
+      </c>
+      <c r="B9" t="str">
+        <f ca="1">A9</f>
+        <v>甘蔗</v>
+      </c>
+      <c r="C9" t="str">
+        <f ca="1">B9</f>
+        <v>甘蔗</v>
+      </c>
+      <c r="D9" t="str">
+        <f ca="1">C9</f>
+        <v>甘蔗</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f ca="1">INDEX(資料!A:A, RANDBETWEEN(1, COUNTA(資料!A:A)))</f>
+        <v>檸檬</v>
+      </c>
+      <c r="B10" t="str">
+        <f ca="1">A10</f>
+        <v>檸檬</v>
+      </c>
+      <c r="C10" t="str">
+        <f ca="1">B10</f>
+        <v>檸檬</v>
+      </c>
+      <c r="D10" t="str">
+        <f ca="1">C10</f>
+        <v>檸檬</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f ca="1">INDEX(資料!A:A, RANDBETWEEN(1, COUNTA(資料!A:A)))</f>
+        <v>楊桃</v>
+      </c>
+      <c r="B11" t="str">
+        <f ca="1">A11</f>
+        <v>楊桃</v>
+      </c>
+      <c r="C11" t="str">
+        <f ca="1">B11</f>
+        <v>楊桃</v>
+      </c>
+      <c r="D11" t="str">
+        <f ca="1">C11</f>
+        <v>楊桃</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f ca="1">INDEX(資料!A:A, RANDBETWEEN(1, COUNTA(資料!A:A)))</f>
+        <v>蔓越莓</v>
+      </c>
+      <c r="B12" t="str">
+        <f ca="1">A12</f>
+        <v>蔓越莓</v>
+      </c>
+      <c r="C12" t="str">
+        <f ca="1">B12</f>
+        <v>蔓越莓</v>
+      </c>
+      <c r="D12" t="str">
+        <f ca="1">C12</f>
+        <v>蔓越莓</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f ca="1">INDEX(資料!A:A, RANDBETWEEN(1, COUNTA(資料!A:A)))</f>
+        <v>木瓜</v>
+      </c>
+      <c r="B13" t="str">
+        <f ca="1">A13</f>
+        <v>木瓜</v>
+      </c>
+      <c r="C13" t="str">
+        <f ca="1">B13</f>
+        <v>木瓜</v>
+      </c>
+      <c r="D13" t="str">
+        <f ca="1">C13</f>
+        <v>木瓜</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f ca="1">INDEX(資料!A:A, RANDBETWEEN(1, COUNTA(資料!A:A)))</f>
+        <v>甘蔗</v>
+      </c>
+      <c r="B14" t="str">
+        <f ca="1">A14</f>
+        <v>甘蔗</v>
+      </c>
+      <c r="C14" t="str">
+        <f ca="1">B14</f>
+        <v>甘蔗</v>
+      </c>
+      <c r="D14" t="str">
+        <f ca="1">C14</f>
+        <v>甘蔗</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f ca="1">INDEX(資料!A:A, RANDBETWEEN(1, COUNTA(資料!A:A)))</f>
+        <v>椰子</v>
+      </c>
+      <c r="B15" t="str">
+        <f ca="1">A15</f>
+        <v>椰子</v>
+      </c>
+      <c r="C15" t="str">
+        <f ca="1">B15</f>
+        <v>椰子</v>
+      </c>
+      <c r="D15" t="str">
+        <f ca="1">C15</f>
+        <v>椰子</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f ca="1">INDEX(資料!A:A, RANDBETWEEN(1, COUNTA(資料!A:A)))</f>
+        <v>甘蔗</v>
+      </c>
+      <c r="B16" t="str">
+        <f ca="1">A16</f>
+        <v>甘蔗</v>
+      </c>
+      <c r="C16" t="str">
+        <f ca="1">B16</f>
+        <v>甘蔗</v>
+      </c>
+      <c r="D16" t="str">
+        <f ca="1">C16</f>
+        <v>甘蔗</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f ca="1">INDEX(資料!A:A, RANDBETWEEN(1, COUNTA(資料!A:A)))</f>
+        <v>柳丁</v>
+      </c>
+      <c r="B17" t="str">
+        <f ca="1">A17</f>
+        <v>柳丁</v>
+      </c>
+      <c r="C17" t="str">
+        <f ca="1">B17</f>
+        <v>柳丁</v>
+      </c>
+      <c r="D17" t="str">
+        <f ca="1">C17</f>
+        <v>柳丁</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f ca="1">INDEX(資料!A:A, RANDBETWEEN(1, COUNTA(資料!A:A)))</f>
+        <v>香蕉</v>
+      </c>
+      <c r="B18" t="str">
+        <f ca="1">A18</f>
+        <v>香蕉</v>
+      </c>
+      <c r="C18" t="str">
+        <f ca="1">B18</f>
+        <v>香蕉</v>
+      </c>
+      <c r="D18" t="str">
+        <f ca="1">C18</f>
+        <v>香蕉</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f ca="1">INDEX(資料!A:A, RANDBETWEEN(1, COUNTA(資料!A:A)))</f>
+        <v>橘子</v>
+      </c>
+      <c r="B19" t="str">
+        <f ca="1">A19</f>
+        <v>橘子</v>
+      </c>
+      <c r="C19" t="str">
+        <f ca="1">B19</f>
+        <v>橘子</v>
+      </c>
+      <c r="D19" t="str">
+        <f ca="1">C19</f>
+        <v>橘子</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f ca="1">INDEX(資料!A:A, RANDBETWEEN(1, COUNTA(資料!A:A)))</f>
+        <v>檸檬</v>
+      </c>
+      <c r="B20" t="str">
+        <f ca="1">A20</f>
+        <v>檸檬</v>
+      </c>
+      <c r="C20" t="str">
+        <f ca="1">B20</f>
+        <v>檸檬</v>
+      </c>
+      <c r="D20" t="str">
+        <f ca="1">C20</f>
+        <v>檸檬</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>COUNTIF(A:A,A1)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>(COUNTIF(A:A, A1) - COUNTIF(A1:A1024, A1)) &gt; 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>10</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="4" priority="3">
-      <formula>COUNTIF(B:B,B1)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>(COUNTIF(C:C, C1) - COUNTIF(C1:C1024, C1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>